--- a/data/evaluation/evaluation_North_Spring_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Tomatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1495.396994434137</v>
+        <v>1730.596994434137</v>
       </c>
       <c r="C3" t="n">
-        <v>3200371.716870068</v>
+        <v>4837004.605758957</v>
       </c>
       <c r="D3" t="n">
-        <v>1788.958277006501</v>
+        <v>2199.319123219492</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6217555726112529</v>
+        <v>-1.451102518118635</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1547.933012851646</v>
+        <v>1543.719360486158</v>
       </c>
       <c r="C4" t="n">
-        <v>3555548.799805241</v>
+        <v>3508767.914301319</v>
       </c>
       <c r="D4" t="n">
-        <v>1885.616291774454</v>
+        <v>1873.170551311684</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8017379198109893</v>
+        <v>-0.7780321854558963</v>
       </c>
     </row>
     <row r="5">
